--- a/GATEWAY/A1#180913000000XX/aopc/repo-aopc/1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#180913000000XX/aopc/repo-aopc/1.0.0/report-checklist.xlsx
@@ -1942,11 +1942,11 @@
   <dimension ref="A1:U671"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
+      <selection pane="bottomRight" activeCell="B53" activeCellId="0" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/GATEWAY/A1#180913000000XX/aopc/repo-aopc/1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#180913000000XX/aopc/repo-aopc/1.0.0/report-checklist.xlsx
@@ -1424,7 +1424,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1559,14 +1559,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1736,7 +1728,7 @@
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.89"/>
@@ -1823,7 +1815,7 @@
       <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="232.04"/>
@@ -1936,20 +1928,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:U671"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
-      <selection pane="bottomRight" activeCell="B53" activeCellId="0" sqref="B53"/>
+      <selection pane="bottomLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+      <selection pane="bottomRight" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.89"/>
@@ -2206,7 +2198,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" s="35" customFormat="true" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="n">
         <v>194</v>
       </c>
@@ -2251,11 +2243,11 @@
       <c r="T10" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="U10" s="34" t="n">
+      <c r="U10" s="11" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="11" s="35" customFormat="true" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="n">
         <v>205</v>
       </c>
@@ -2304,11 +2296,11 @@
       <c r="T11" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U11" s="34" t="n">
+      <c r="U11" s="11" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="12" s="35" customFormat="true" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="n">
         <v>274</v>
       </c>
@@ -2353,11 +2345,11 @@
       <c r="T12" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="U12" s="34" t="n">
+      <c r="U12" s="11" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="13" s="35" customFormat="true" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="n">
         <v>285</v>
       </c>
@@ -2406,343 +2398,343 @@
       <c r="T13" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U13" s="34" t="n">
+      <c r="U13" s="11" t="n">
         <v>73</v>
       </c>
     </row>
-    <row r="14" s="46" customFormat="true" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36" t="n">
+    <row r="14" s="44" customFormat="true" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="34" t="n">
         <v>352</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41" t="s">
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41" t="s">
+      <c r="K14" s="39"/>
+      <c r="L14" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="M14" s="41" t="s">
+      <c r="M14" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41" t="s">
+      <c r="N14" s="39"/>
+      <c r="O14" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="44" t="s">
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="U14" s="45"/>
-    </row>
-    <row r="15" s="46" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36" t="n">
+      <c r="U14" s="43"/>
+    </row>
+    <row r="15" s="44" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="34" t="n">
         <v>353</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41" t="s">
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41" t="s">
+      <c r="K15" s="39"/>
+      <c r="L15" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="41" t="s">
+      <c r="M15" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41" t="s">
+      <c r="N15" s="39"/>
+      <c r="O15" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="44" t="s">
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="U15" s="45"/>
-    </row>
-    <row r="16" s="46" customFormat="true" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36" t="n">
+      <c r="U15" s="43"/>
+    </row>
+    <row r="16" s="44" customFormat="true" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="34" t="n">
         <v>362</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41" t="s">
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41" t="s">
+      <c r="K16" s="39"/>
+      <c r="L16" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="M16" s="41" t="s">
+      <c r="M16" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41" t="s">
+      <c r="N16" s="39"/>
+      <c r="O16" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="44" t="s">
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="U16" s="45"/>
-    </row>
-    <row r="17" s="46" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36" t="n">
+      <c r="U16" s="43"/>
+    </row>
+    <row r="17" s="44" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="34" t="n">
         <v>363</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41" t="s">
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41" t="s">
+      <c r="K17" s="39"/>
+      <c r="L17" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="41" t="s">
+      <c r="M17" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41" t="s">
+      <c r="N17" s="39"/>
+      <c r="O17" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="44" t="s">
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="U17" s="45"/>
-    </row>
-    <row r="18" s="46" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36" t="n">
+      <c r="U17" s="43"/>
+    </row>
+    <row r="18" s="44" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="34" t="n">
         <v>195</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41" t="s">
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="44" t="s">
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="U18" s="45"/>
-    </row>
-    <row r="19" s="46" customFormat="true" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36" t="n">
+      <c r="U18" s="43"/>
+    </row>
+    <row r="19" s="44" customFormat="true" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="34" t="n">
         <v>204</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="41" t="s">
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41" t="s">
+      <c r="K19" s="39"/>
+      <c r="L19" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="M19" s="41" t="s">
+      <c r="M19" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41" t="s">
+      <c r="N19" s="39"/>
+      <c r="O19" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="44" t="s">
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="U19" s="45"/>
-    </row>
-    <row r="20" s="46" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36" t="n">
+      <c r="U19" s="43"/>
+    </row>
+    <row r="20" s="44" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="34" t="n">
         <v>275</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41" t="s">
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="44" t="s">
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="U20" s="45"/>
-    </row>
-    <row r="21" s="46" customFormat="true" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="36" t="n">
+      <c r="U20" s="43"/>
+    </row>
+    <row r="21" s="44" customFormat="true" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="34" t="n">
         <v>284</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="41" t="s">
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41" t="s">
+      <c r="K21" s="39"/>
+      <c r="L21" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="M21" s="41" t="s">
+      <c r="M21" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41" t="s">
+      <c r="N21" s="39"/>
+      <c r="O21" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="44" t="s">
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="U21" s="45"/>
-    </row>
-    <row r="22" s="35" customFormat="true" ht="191.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U21" s="43"/>
+    </row>
+    <row r="22" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="25" t="n">
         <v>196</v>
       </c>
@@ -2787,11 +2779,11 @@
       <c r="T22" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="U22" s="34" t="n">
+      <c r="U22" s="11" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="23" s="35" customFormat="true" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="n">
         <v>207</v>
       </c>
@@ -2840,11 +2832,11 @@
       <c r="T23" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U23" s="34" t="n">
+      <c r="U23" s="11" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="24" s="35" customFormat="true" ht="191.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="25" t="n">
         <v>276</v>
       </c>
@@ -2889,11 +2881,11 @@
       <c r="T24" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="U24" s="34" t="n">
+      <c r="U24" s="11" t="n">
         <v>61</v>
       </c>
     </row>
-    <row r="25" s="35" customFormat="true" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="n">
         <v>287</v>
       </c>
@@ -2942,11 +2934,11 @@
       <c r="T25" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U25" s="34" t="n">
+      <c r="U25" s="11" t="n">
         <v>63</v>
       </c>
     </row>
-    <row r="26" s="35" customFormat="true" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="25" t="n">
         <v>192</v>
       </c>
@@ -2991,11 +2983,11 @@
       <c r="T26" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="U26" s="34" t="n">
+      <c r="U26" s="11" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="27" s="35" customFormat="true" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="25" t="n">
         <v>197</v>
       </c>
@@ -3044,11 +3036,11 @@
       <c r="T27" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U27" s="34" t="n">
+      <c r="U27" s="11" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="28" s="35" customFormat="true" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="25" t="n">
         <v>198</v>
       </c>
@@ -3097,11 +3089,11 @@
       <c r="T28" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U28" s="34" t="n">
+      <c r="U28" s="11" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="29" s="35" customFormat="true" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="n">
         <v>199</v>
       </c>
@@ -3152,11 +3144,11 @@
       <c r="T29" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U29" s="34" t="n">
+      <c r="U29" s="11" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="30" s="35" customFormat="true" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="25" t="n">
         <v>200</v>
       </c>
@@ -3205,11 +3197,11 @@
       <c r="T30" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U30" s="34" t="n">
+      <c r="U30" s="11" t="n">
         <v>52</v>
       </c>
     </row>
-    <row r="31" s="35" customFormat="true" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="25" t="n">
         <v>201</v>
       </c>
@@ -3260,11 +3252,11 @@
       <c r="T31" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U31" s="34" t="n">
+      <c r="U31" s="11" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="32" s="35" customFormat="true" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="25" t="n">
         <v>202</v>
       </c>
@@ -3315,11 +3307,11 @@
       <c r="T32" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U32" s="34" t="n">
+      <c r="U32" s="11" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="33" s="35" customFormat="true" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="25" t="n">
         <v>203</v>
       </c>
@@ -3370,11 +3362,11 @@
       <c r="T33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U33" s="34" t="n">
+      <c r="U33" s="11" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="34" s="35" customFormat="true" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="25" t="n">
         <v>272</v>
       </c>
@@ -3419,11 +3411,11 @@
       <c r="T34" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="U34" s="34" t="n">
+      <c r="U34" s="11" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="35" s="35" customFormat="true" ht="147" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="n">
         <v>277</v>
       </c>
@@ -3472,11 +3464,11 @@
       <c r="T35" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U35" s="34" t="n">
+      <c r="U35" s="11" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="36" s="35" customFormat="true" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="n">
         <v>278</v>
       </c>
@@ -3525,11 +3517,11 @@
       <c r="T36" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U36" s="34" t="n">
+      <c r="U36" s="11" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="37" s="35" customFormat="true" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="25" t="n">
         <v>279</v>
       </c>
@@ -3580,11 +3572,11 @@
       <c r="T37" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U37" s="34" t="n">
+      <c r="U37" s="11" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="38" s="35" customFormat="true" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="25" t="n">
         <v>280</v>
       </c>
@@ -3633,11 +3625,11 @@
       <c r="T38" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U38" s="34" t="n">
+      <c r="U38" s="11" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="39" s="35" customFormat="true" ht="158.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="25" t="n">
         <v>281</v>
       </c>
@@ -3688,11 +3680,11 @@
       <c r="T39" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U39" s="34" t="n">
+      <c r="U39" s="11" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="40" s="35" customFormat="true" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="25" t="n">
         <v>282</v>
       </c>
@@ -3743,11 +3735,11 @@
       <c r="T40" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U40" s="34" t="n">
+      <c r="U40" s="11" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="41" s="35" customFormat="true" ht="169.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="25" t="n">
         <v>283</v>
       </c>
@@ -3798,11 +3790,11 @@
       <c r="T41" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U41" s="34" t="n">
+      <c r="U41" s="11" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="42" s="35" customFormat="true" ht="202.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="25" t="n">
         <v>320</v>
       </c>
@@ -3851,11 +3843,11 @@
       <c r="T42" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U42" s="34" t="n">
+      <c r="U42" s="11" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="43" s="35" customFormat="true" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="25" t="n">
         <v>321</v>
       </c>
@@ -3904,11 +3896,11 @@
       <c r="T43" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U43" s="34" t="n">
+      <c r="U43" s="11" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="44" s="35" customFormat="true" ht="202.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="25" t="n">
         <v>340</v>
       </c>
@@ -3957,11 +3949,11 @@
       <c r="T44" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U44" s="34" t="n">
+      <c r="U44" s="11" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="45" s="35" customFormat="true" ht="180.55" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="25" t="n">
         <v>341</v>
       </c>
@@ -4010,11 +4002,11 @@
       <c r="T45" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U45" s="34" t="n">
+      <c r="U45" s="11" t="n">
         <v>67</v>
       </c>
     </row>
-    <row r="46" s="35" customFormat="true" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="25" t="n">
         <v>193</v>
       </c>
@@ -4030,7 +4022,7 @@
       <c r="E46" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="F46" s="47" t="n">
+      <c r="F46" s="45" t="n">
         <v>45013</v>
       </c>
       <c r="G46" s="28" t="s">
@@ -4059,54 +4051,54 @@
       <c r="T46" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="U46" s="34" t="n">
+      <c r="U46" s="11" t="n">
         <v>104</v>
       </c>
     </row>
-    <row r="47" s="46" customFormat="true" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="36" t="n">
+    <row r="47" s="44" customFormat="true" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="34" t="n">
         <v>206</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="E47" s="38" t="s">
+      <c r="E47" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="41" t="s">
+      <c r="F47" s="37"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41" t="s">
+      <c r="K47" s="39"/>
+      <c r="L47" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="M47" s="41" t="s">
+      <c r="M47" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41" t="s">
+      <c r="N47" s="39"/>
+      <c r="O47" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="42"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="44" t="s">
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="U47" s="45"/>
-    </row>
-    <row r="48" s="35" customFormat="true" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U47" s="43"/>
+    </row>
+    <row r="48" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="25" t="n">
         <v>273</v>
       </c>
@@ -4151,97 +4143,97 @@
       <c r="T48" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="U48" s="34" t="n">
+      <c r="U48" s="11" t="n">
         <v>107</v>
       </c>
     </row>
-    <row r="49" s="46" customFormat="true" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="36" t="n">
+    <row r="49" s="44" customFormat="true" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="34" t="n">
         <v>286</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="E49" s="38" t="s">
+      <c r="E49" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="41" t="s">
+      <c r="F49" s="37"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41" t="s">
+      <c r="K49" s="39"/>
+      <c r="L49" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="M49" s="41" t="s">
+      <c r="M49" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41" t="s">
+      <c r="N49" s="39"/>
+      <c r="O49" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="42"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="44" t="s">
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="U49" s="45"/>
-    </row>
-    <row r="50" s="46" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="36" t="n">
+      <c r="U49" s="43"/>
+    </row>
+    <row r="50" s="44" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="34" t="n">
         <v>322</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="E50" s="38" t="s">
+      <c r="E50" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="F50" s="39"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="41" t="s">
+      <c r="F50" s="37"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41" t="s">
+      <c r="K50" s="39"/>
+      <c r="L50" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="M50" s="41" t="s">
+      <c r="M50" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="N50" s="41"/>
-      <c r="O50" s="41" t="s">
+      <c r="N50" s="39"/>
+      <c r="O50" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="42"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="44" t="s">
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="U50" s="45"/>
-    </row>
-    <row r="51" s="35" customFormat="true" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U50" s="43"/>
+    </row>
+    <row r="51" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="25" t="n">
         <v>323</v>
       </c>
@@ -4290,54 +4282,54 @@
       <c r="T51" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U51" s="34" t="n">
+      <c r="U51" s="11" t="n">
         <v>112</v>
       </c>
     </row>
-    <row r="52" s="46" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="36" t="n">
+    <row r="52" s="44" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="34" t="n">
         <v>342</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="C52" s="37" t="s">
+      <c r="C52" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="37" t="s">
+      <c r="D52" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="E52" s="38" t="s">
+      <c r="E52" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="F52" s="39"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="41" t="s">
+      <c r="F52" s="37"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41" t="s">
+      <c r="K52" s="39"/>
+      <c r="L52" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="M52" s="41" t="s">
+      <c r="M52" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41" t="s">
+      <c r="N52" s="39"/>
+      <c r="O52" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="43"/>
-      <c r="T52" s="44" t="s">
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="U52" s="45"/>
-    </row>
-    <row r="53" s="35" customFormat="true" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U52" s="43"/>
+    </row>
+    <row r="53" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="25" t="n">
         <v>343</v>
       </c>
@@ -4386,7 +4378,7 @@
       <c r="T53" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="U53" s="34" t="n">
+      <c r="U53" s="11" t="n">
         <v>110</v>
       </c>
     </row>
@@ -13988,13 +13980,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A9:T53">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="AGGIORNAMENTO_METADATI"/>
-        <filter val="ELIMINAZIONE"/>
-        <filter val="PUBBLICAZIONE_SOSTITUZIONE"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A10:T53">
       <sortCondition ref="A10:A53" customList=""/>
     </sortState>
@@ -14033,11 +14018,11 @@
       <selection pane="bottomLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="115.32"/>
   </cols>
   <sheetData>
@@ -14062,10 +14047,10 @@
       <c r="B2" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="46" t="s">
         <v>231</v>
       </c>
     </row>
@@ -14076,10 +14061,10 @@
       <c r="B3" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="46" t="s">
         <v>234</v>
       </c>
     </row>
@@ -14090,10 +14075,10 @@
       <c r="B4" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="47" t="s">
         <v>237</v>
       </c>
     </row>
@@ -14104,10 +14089,10 @@
       <c r="B5" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="46" t="s">
         <v>240</v>
       </c>
     </row>
@@ -14118,10 +14103,10 @@
       <c r="B6" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="47" t="s">
         <v>243</v>
       </c>
     </row>
@@ -14132,10 +14117,10 @@
       <c r="B7" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="47" t="s">
         <v>245</v>
       </c>
     </row>
@@ -14146,10 +14131,10 @@
       <c r="B8" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="47" t="s">
         <v>248</v>
       </c>
     </row>
@@ -14160,10 +14145,10 @@
       <c r="B9" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="47" t="s">
         <v>251</v>
       </c>
     </row>
@@ -14174,10 +14159,10 @@
       <c r="B10" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C10" s="48" t="n">
+      <c r="C10" s="46" t="n">
         <v>191</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="46" t="s">
         <v>253</v>
       </c>
     </row>
@@ -14188,10 +14173,10 @@
       <c r="B11" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C11" s="48" t="n">
+      <c r="C11" s="46" t="n">
         <v>192</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="46" t="s">
         <v>255</v>
       </c>
     </row>
@@ -14202,10 +14187,10 @@
       <c r="B12" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="48" t="n">
+      <c r="C12" s="46" t="n">
         <v>208</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="46" t="s">
         <v>256</v>
       </c>
     </row>
@@ -14216,10 +14201,10 @@
       <c r="B13" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C13" s="48" t="n">
+      <c r="C13" s="46" t="n">
         <v>224</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="47" t="s">
         <v>257</v>
       </c>
     </row>
@@ -14230,10 +14215,10 @@
       <c r="B14" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C14" s="48" t="n">
+      <c r="C14" s="46" t="n">
         <v>240</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="46" t="s">
         <v>258</v>
       </c>
     </row>
@@ -14244,10 +14229,10 @@
       <c r="B15" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C15" s="48" t="n">
+      <c r="C15" s="46" t="n">
         <v>256</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="47" t="s">
         <v>259</v>
       </c>
     </row>
@@ -14258,10 +14243,10 @@
       <c r="B16" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="48" t="n">
+      <c r="C16" s="46" t="n">
         <v>272</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="47" t="s">
         <v>260</v>
       </c>
     </row>
@@ -14272,10 +14257,10 @@
       <c r="B17" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="48" t="n">
+      <c r="C17" s="46" t="n">
         <v>288</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="47" t="s">
         <v>261</v>
       </c>
     </row>
@@ -14286,10 +14271,10 @@
       <c r="B18" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C18" s="48" t="n">
+      <c r="C18" s="46" t="n">
         <v>304</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="47" t="s">
         <v>262</v>
       </c>
     </row>
@@ -14300,10 +14285,10 @@
       <c r="B19" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C19" s="48" t="n">
+      <c r="C19" s="46" t="n">
         <v>193</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="46" t="s">
         <v>264</v>
       </c>
     </row>
@@ -14314,10 +14299,10 @@
       <c r="B20" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C20" s="48" t="n">
+      <c r="C20" s="46" t="n">
         <v>209</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="46" t="s">
         <v>265</v>
       </c>
     </row>
@@ -14328,10 +14313,10 @@
       <c r="B21" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C21" s="48" t="n">
+      <c r="C21" s="46" t="n">
         <v>225</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="47" t="s">
         <v>266</v>
       </c>
     </row>
@@ -14342,10 +14327,10 @@
       <c r="B22" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C22" s="48" t="n">
+      <c r="C22" s="46" t="n">
         <v>241</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="46" t="s">
         <v>267</v>
       </c>
     </row>
@@ -14356,10 +14341,10 @@
       <c r="B23" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C23" s="48" t="n">
+      <c r="C23" s="46" t="n">
         <v>257</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="47" t="s">
         <v>268</v>
       </c>
     </row>
@@ -14370,10 +14355,10 @@
       <c r="B24" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C24" s="48" t="n">
+      <c r="C24" s="46" t="n">
         <v>273</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="47" t="s">
         <v>269</v>
       </c>
     </row>
@@ -14384,10 +14369,10 @@
       <c r="B25" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C25" s="48" t="n">
+      <c r="C25" s="46" t="n">
         <v>289</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="47" t="s">
         <v>270</v>
       </c>
     </row>
@@ -14398,10 +14383,10 @@
       <c r="B26" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C26" s="48" t="n">
+      <c r="C26" s="46" t="n">
         <v>305</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="47" t="s">
         <v>271</v>
       </c>
     </row>
@@ -14412,10 +14397,10 @@
       <c r="B27" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C27" s="48" t="n">
+      <c r="C27" s="46" t="n">
         <v>194</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="46" t="s">
         <v>273</v>
       </c>
     </row>
@@ -14426,10 +14411,10 @@
       <c r="B28" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C28" s="48" t="n">
+      <c r="C28" s="46" t="n">
         <v>210</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="46" t="s">
         <v>274</v>
       </c>
     </row>
@@ -14440,10 +14425,10 @@
       <c r="B29" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C29" s="48" t="n">
+      <c r="C29" s="46" t="n">
         <v>226</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="48" t="s">
         <v>275</v>
       </c>
     </row>
@@ -14454,10 +14439,10 @@
       <c r="B30" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C30" s="48" t="n">
+      <c r="C30" s="46" t="n">
         <v>242</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="46" t="s">
         <v>276</v>
       </c>
     </row>
@@ -14468,10 +14453,10 @@
       <c r="B31" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C31" s="48" t="n">
+      <c r="C31" s="46" t="n">
         <v>258</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="47" t="s">
         <v>277</v>
       </c>
     </row>
@@ -14482,10 +14467,10 @@
       <c r="B32" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C32" s="48" t="n">
+      <c r="C32" s="46" t="n">
         <v>274</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="47" t="s">
         <v>278</v>
       </c>
     </row>
@@ -14496,10 +14481,10 @@
       <c r="B33" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C33" s="48" t="n">
+      <c r="C33" s="46" t="n">
         <v>290</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="47" t="s">
         <v>279</v>
       </c>
     </row>
@@ -14510,10 +14495,10 @@
       <c r="B34" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C34" s="48" t="n">
+      <c r="C34" s="46" t="n">
         <v>306</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="47" t="s">
         <v>280</v>
       </c>
     </row>
@@ -14524,10 +14509,10 @@
       <c r="B35" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C35" s="48" t="n">
+      <c r="C35" s="46" t="n">
         <v>195</v>
       </c>
-      <c r="D35" s="48" t="n">
+      <c r="D35" s="46" t="n">
         <v>204</v>
       </c>
     </row>
@@ -14538,10 +14523,10 @@
       <c r="B36" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C36" s="48" t="n">
+      <c r="C36" s="46" t="n">
         <v>211</v>
       </c>
-      <c r="D36" s="48" t="n">
+      <c r="D36" s="46" t="n">
         <v>220</v>
       </c>
     </row>
@@ -14552,10 +14537,10 @@
       <c r="B37" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C37" s="48" t="n">
+      <c r="C37" s="46" t="n">
         <v>227</v>
       </c>
-      <c r="D37" s="49" t="n">
+      <c r="D37" s="47" t="n">
         <v>236</v>
       </c>
     </row>
@@ -14566,10 +14551,10 @@
       <c r="B38" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C38" s="48" t="n">
+      <c r="C38" s="46" t="n">
         <v>243</v>
       </c>
-      <c r="D38" s="48" t="n">
+      <c r="D38" s="46" t="n">
         <v>252</v>
       </c>
     </row>
@@ -14580,10 +14565,10 @@
       <c r="B39" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C39" s="48" t="n">
+      <c r="C39" s="46" t="n">
         <v>259</v>
       </c>
-      <c r="D39" s="49" t="n">
+      <c r="D39" s="47" t="n">
         <v>268</v>
       </c>
     </row>
@@ -14594,10 +14579,10 @@
       <c r="B40" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C40" s="48" t="n">
+      <c r="C40" s="46" t="n">
         <v>275</v>
       </c>
-      <c r="D40" s="49" t="n">
+      <c r="D40" s="47" t="n">
         <v>284</v>
       </c>
     </row>
@@ -14608,10 +14593,10 @@
       <c r="B41" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C41" s="48" t="n">
+      <c r="C41" s="46" t="n">
         <v>291</v>
       </c>
-      <c r="D41" s="49" t="n">
+      <c r="D41" s="47" t="n">
         <v>300</v>
       </c>
     </row>
@@ -14622,10 +14607,10 @@
       <c r="B42" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C42" s="48" t="n">
+      <c r="C42" s="46" t="n">
         <v>307</v>
       </c>
-      <c r="D42" s="49" t="n">
+      <c r="D42" s="47" t="n">
         <v>316</v>
       </c>
     </row>
@@ -14636,10 +14621,10 @@
       <c r="B43" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C43" s="48" t="n">
+      <c r="C43" s="46" t="n">
         <v>196</v>
       </c>
-      <c r="D43" s="48" t="n">
+      <c r="D43" s="46" t="n">
         <v>207</v>
       </c>
     </row>
@@ -14650,10 +14635,10 @@
       <c r="B44" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C44" s="48" t="n">
+      <c r="C44" s="46" t="n">
         <v>212</v>
       </c>
-      <c r="D44" s="48" t="n">
+      <c r="D44" s="46" t="n">
         <v>223</v>
       </c>
     </row>
@@ -14664,10 +14649,10 @@
       <c r="B45" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C45" s="48" t="n">
+      <c r="C45" s="46" t="n">
         <v>228</v>
       </c>
-      <c r="D45" s="49" t="n">
+      <c r="D45" s="47" t="n">
         <v>239</v>
       </c>
     </row>
@@ -14678,10 +14663,10 @@
       <c r="B46" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C46" s="48" t="n">
+      <c r="C46" s="46" t="n">
         <v>244</v>
       </c>
-      <c r="D46" s="48" t="n">
+      <c r="D46" s="46" t="n">
         <v>255</v>
       </c>
     </row>
@@ -14692,10 +14677,10 @@
       <c r="B47" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C47" s="48" t="n">
+      <c r="C47" s="46" t="n">
         <v>260</v>
       </c>
-      <c r="D47" s="49" t="n">
+      <c r="D47" s="47" t="n">
         <v>271</v>
       </c>
     </row>
@@ -14706,10 +14691,10 @@
       <c r="B48" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C48" s="48" t="n">
+      <c r="C48" s="46" t="n">
         <v>276</v>
       </c>
-      <c r="D48" s="49" t="n">
+      <c r="D48" s="47" t="n">
         <v>287</v>
       </c>
     </row>
@@ -14720,10 +14705,10 @@
       <c r="B49" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C49" s="48" t="n">
+      <c r="C49" s="46" t="n">
         <v>292</v>
       </c>
-      <c r="D49" s="49" t="n">
+      <c r="D49" s="47" t="n">
         <v>303</v>
       </c>
     </row>
@@ -14734,10 +14719,10 @@
       <c r="B50" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C50" s="48" t="n">
+      <c r="C50" s="46" t="n">
         <v>308</v>
       </c>
-      <c r="D50" s="49" t="n">
+      <c r="D50" s="47" t="n">
         <v>319</v>
       </c>
     </row>
@@ -14763,7 +14748,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
@@ -14771,32 +14756,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="49" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="49" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#180913000000XX/aopc/repo-aopc/1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#180913000000XX/aopc/repo-aopc/1.0.0/report-checklist.xlsx
@@ -1958,11 +1958,11 @@
   <dimension ref="A1:AMJ671"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1976,7 +1976,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="36.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="47.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="36.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="36.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="46.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="33.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="36.45"/>
